--- a/template.xlsx
+++ b/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="11445"/>
+    <workbookView windowWidth="16470" windowHeight="14745"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2">
-  <si>
-    <t>!!!x!!!</t>
-  </si>
-  <si>
-    <t>!!!y!!!</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+  <si>
+    <t>ネ申エクセル</t>
+  </si>
+  <si>
+    <t>氏名</t>
+  </si>
+  <si>
+    <t>!!!Name!!!</t>
+  </si>
+  <si>
+    <t>年齢</t>
+  </si>
+  <si>
+    <t>!!!Age!!!</t>
+  </si>
+  <si>
+    <t>住所</t>
+  </si>
+  <si>
+    <t>〒</t>
+  </si>
+  <si>
+    <t>!!!〒0!!!</t>
+  </si>
+  <si>
+    <t>!!!〒1!!!</t>
+  </si>
+  <si>
+    <t>!!!〒2!!!</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>!!!〒3!!!</t>
+  </si>
+  <si>
+    <t>!!!〒4!!!</t>
+  </si>
+  <si>
+    <t>!!!〒5!!!</t>
+  </si>
+  <si>
+    <t>!!!〒6!!!</t>
+  </si>
+  <si>
+    <t>!!!Address!!!</t>
+  </si>
+  <si>
+    <t>電話</t>
+  </si>
+  <si>
+    <t>!!!Tel0!!!</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>!!!Tel1!!!</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>!!!Tel2!!!</t>
   </si>
 </sst>
 </file>
@@ -34,7 +94,7 @@
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,25 +111,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -81,6 +127,95 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -90,16 +225,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -107,14 +234,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -122,73 +241,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,13 +256,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -221,31 +406,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,138 +436,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -398,16 +451,66 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -427,6 +530,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -439,8 +566,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -470,185 +612,182 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -999,28 +1138,179 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A2:B3"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <cols>
+    <col min="1" max="13" width="2.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+    <row r="2" spans="1:13">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A3:B3"/>
+  <mergeCells count="11">
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="A5:M6"/>
+    <mergeCell ref="A1:M2"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
